--- a/Data/Strategy 2 Performance.xlsx
+++ b/Data/Strategy 2 Performance.xlsx
@@ -536,7 +536,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775390625</v>
+        <v>442.9775085449219</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -612,7 +612,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4739990234375</v>
+        <v>433.4740295410156</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -726,7 +726,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264526367188</v>
+        <v>436.4264831542969</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -802,7 +802,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390625</v>
+        <v>441.0390319824219</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -840,7 +840,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492004394531</v>
+        <v>437.6492309570312</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -878,7 +878,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457763671875</v>
+        <v>436.5457458496094</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -954,7 +954,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706726074219</v>
+        <v>435.4706420898438</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -992,7 +992,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556030273438</v>
+        <v>436.5556335449219</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -1030,7 +1030,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.731689453125</v>
+        <v>441.7317199707031</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -1068,7 +1068,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8221130371094</v>
+        <v>443.8220825195312</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1106,7 +1106,7 @@
         <v>76.48999786376953</v>
       </c>
       <c r="H17">
-        <v>444.3297424316406</v>
+        <v>444.3297729492188</v>
       </c>
       <c r="I17">
         <v>-0.6642838690284227</v>
@@ -1182,7 +1182,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2838134765625</v>
+        <v>441.2837829589844</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -1258,7 +1258,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="H21">
-        <v>441.9706420898438</v>
+        <v>441.9706726074219</v>
       </c>
       <c r="I21">
         <v>-0.6336477332310911</v>
@@ -1410,7 +1410,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404235839844</v>
+        <v>433.3404541015625</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1448,7 +1448,7 @@
         <v>90.58000183105469</v>
       </c>
       <c r="H26">
-        <v>438.4468994140625</v>
+        <v>438.4468688964844</v>
       </c>
       <c r="I26">
         <v>-0.5899923797973738</v>
@@ -1486,7 +1486,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5762939453125</v>
+        <v>438.5763244628906</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -1524,7 +1524,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1987915039062</v>
+        <v>440.1988220214844</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -1562,7 +1562,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565368652344</v>
+        <v>436.3565063476562</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -1638,7 +1638,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2569885253906</v>
+        <v>436.2570190429688</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -1752,7 +1752,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840942382812</v>
+        <v>423.8840637207031</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -1790,7 +1790,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652709960938</v>
+        <v>421.4652404785156</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -1828,7 +1828,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454528808594</v>
+        <v>412.7454833984375</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -1866,7 +1866,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963623046875</v>
+        <v>416.8963317871094</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -1904,7 +1904,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176147460938</v>
+        <v>423.1176452636719</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -2398,7 +2398,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0295715332031</v>
+        <v>440.0296020507812</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -2474,7 +2474,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8817749023438</v>
+        <v>443.8818054199219</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2550,7 +2550,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.904052734375</v>
+        <v>449.9040222167969</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -2626,7 +2626,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.820556640625</v>
+        <v>452.8205871582031</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -2702,7 +2702,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168518066406</v>
+        <v>453.6168823242188</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -2778,7 +2778,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8465881347656</v>
+        <v>455.8466186523438</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2816,7 +2816,7 @@
         <v>81.63999938964844</v>
       </c>
       <c r="H62">
-        <v>457.5686645507812</v>
+        <v>457.5686340332031</v>
       </c>
       <c r="I62">
         <v>-0.2061509673297133</v>
@@ -2854,7 +2854,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435668945312</v>
+        <v>454.3435363769531</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2930,7 +2930,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398620605469</v>
+        <v>448.6398315429688</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -2968,7 +2968,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487365722656</v>
+        <v>451.0487670898438</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -3158,7 +3158,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6950073242188</v>
+        <v>462.6949768066406</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -3234,7 +3234,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.97216796875</v>
+        <v>471.9721984863281</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -3348,7 +3348,7 @@
         <v>83.33999633789062</v>
       </c>
       <c r="H76">
-        <v>482.8320922851562</v>
+        <v>482.8320617675781</v>
       </c>
       <c r="I76">
         <v>-0.4115599555633263</v>
@@ -3424,7 +3424,7 @@
         <v>85.72000122070312</v>
       </c>
       <c r="H78">
-        <v>479.2585754394531</v>
+        <v>479.2586059570312</v>
       </c>
       <c r="I78">
         <v>-0.3423311013641527</v>
@@ -3462,7 +3462,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9744873046875</v>
+        <v>477.9745178222656</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -3576,7 +3576,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236145019531</v>
+        <v>478.9236450195312</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -3728,7 +3728,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137329101562</v>
+        <v>485.5137634277344</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -3804,7 +3804,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6660766601562</v>
+        <v>494.6661071777344</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -4108,7 +4108,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3193969726562</v>
+        <v>480.3194274902344</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -4146,7 +4146,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462951660156</v>
+        <v>478.0462646484375</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -4412,7 +4412,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032348632812</v>
+        <v>462.5032043457031</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -4450,7 +4450,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524047851562</v>
+        <v>456.1524353027344</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -4564,7 +4564,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988342285156</v>
+        <v>447.3988647460938</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -4792,7 +4792,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209045410156</v>
+        <v>450.0209350585938</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -4830,7 +4830,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871643066406</v>
+        <v>461.1871948242188</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -4906,7 +4906,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915771484375</v>
+        <v>472.9915466308594</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -5210,7 +5210,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3244934082031</v>
+        <v>475.3245239257812</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -5514,7 +5514,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916442871094</v>
+        <v>453.0916137695312</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -5590,7 +5590,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.2090148925781</v>
+        <v>467.208984375</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>
@@ -9728,7 +9728,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775390625</v>
+        <v>442.9775085449219</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -9843,7 +9843,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4739990234375</v>
+        <v>433.4740295410156</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -10020,7 +10020,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264526367188</v>
+        <v>436.4264831542969</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -10138,7 +10138,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390625</v>
+        <v>441.0390319824219</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -10197,7 +10197,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492004394531</v>
+        <v>437.6492309570312</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -10256,7 +10256,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457763671875</v>
+        <v>436.5457458496094</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -10374,7 +10374,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706726074219</v>
+        <v>435.4706420898438</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -10433,7 +10433,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556030273438</v>
+        <v>436.5556335449219</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -10492,7 +10492,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.731689453125</v>
+        <v>441.7317199707031</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -10551,7 +10551,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8221130371094</v>
+        <v>443.8220825195312</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -10610,7 +10610,7 @@
         <v>76.48999786376953</v>
       </c>
       <c r="H17">
-        <v>444.3297424316406</v>
+        <v>444.3297729492188</v>
       </c>
       <c r="I17">
         <v>-0.6642838690284227</v>
@@ -10728,7 +10728,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2838134765625</v>
+        <v>441.2837829589844</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -10846,7 +10846,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="H21">
-        <v>441.9706420898438</v>
+        <v>441.9706726074219</v>
       </c>
       <c r="I21">
         <v>-0.6336477332310911</v>
@@ -11082,7 +11082,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404235839844</v>
+        <v>433.3404541015625</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -11141,7 +11141,7 @@
         <v>90.58000183105469</v>
       </c>
       <c r="H26">
-        <v>438.4468994140625</v>
+        <v>438.4468688964844</v>
       </c>
       <c r="I26">
         <v>-0.5899923797973738</v>
@@ -11200,7 +11200,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5762939453125</v>
+        <v>438.5763244628906</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -11259,7 +11259,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1987915039062</v>
+        <v>440.1988220214844</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -11318,7 +11318,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565368652344</v>
+        <v>436.3565063476562</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -11436,7 +11436,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2569885253906</v>
+        <v>436.2570190429688</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -11613,7 +11613,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840942382812</v>
+        <v>423.8840637207031</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -11672,7 +11672,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652709960938</v>
+        <v>421.4652404785156</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -11731,7 +11731,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454528808594</v>
+        <v>412.7454833984375</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -11790,7 +11790,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963623046875</v>
+        <v>416.8963317871094</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -11849,7 +11849,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176147460938</v>
+        <v>423.1176452636719</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -12616,7 +12616,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0295715332031</v>
+        <v>440.0296020507812</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -12734,7 +12734,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8817749023438</v>
+        <v>443.8818054199219</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -12852,7 +12852,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.904052734375</v>
+        <v>449.9040222167969</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -12970,7 +12970,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.820556640625</v>
+        <v>452.8205871582031</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -13088,7 +13088,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168518066406</v>
+        <v>453.6168823242188</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -13206,7 +13206,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8465881347656</v>
+        <v>455.8466186523438</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -13265,7 +13265,7 @@
         <v>81.63999938964844</v>
       </c>
       <c r="H62">
-        <v>457.5686645507812</v>
+        <v>457.5686340332031</v>
       </c>
       <c r="I62">
         <v>-0.2061509673297133</v>
@@ -13324,7 +13324,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435668945312</v>
+        <v>454.3435363769531</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -13442,7 +13442,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398620605469</v>
+        <v>448.6398315429688</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -13501,7 +13501,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487365722656</v>
+        <v>451.0487670898438</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -13796,7 +13796,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6950073242188</v>
+        <v>462.6949768066406</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -13914,7 +13914,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.97216796875</v>
+        <v>471.9721984863281</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -14091,7 +14091,7 @@
         <v>83.33999633789062</v>
       </c>
       <c r="H76">
-        <v>482.8320922851562</v>
+        <v>482.8320617675781</v>
       </c>
       <c r="I76">
         <v>-0.4115599555633263</v>
@@ -14209,7 +14209,7 @@
         <v>85.72000122070312</v>
       </c>
       <c r="H78">
-        <v>479.2585754394531</v>
+        <v>479.2586059570312</v>
       </c>
       <c r="I78">
         <v>-0.3423311013641527</v>
@@ -14268,7 +14268,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9744873046875</v>
+        <v>477.9745178222656</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -14445,7 +14445,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236145019531</v>
+        <v>478.9236450195312</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -14681,7 +14681,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137329101562</v>
+        <v>485.5137634277344</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -14799,7 +14799,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6660766601562</v>
+        <v>494.6661071777344</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -15271,7 +15271,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3193969726562</v>
+        <v>480.3194274902344</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -15330,7 +15330,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462951660156</v>
+        <v>478.0462646484375</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -15743,7 +15743,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032348632812</v>
+        <v>462.5032043457031</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -15802,7 +15802,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524047851562</v>
+        <v>456.1524353027344</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -15979,7 +15979,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988342285156</v>
+        <v>447.3988647460938</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -16333,7 +16333,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209045410156</v>
+        <v>450.0209350585938</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -16392,7 +16392,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871643066406</v>
+        <v>461.1871948242188</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -16510,7 +16510,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915771484375</v>
+        <v>472.9915466308594</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -16982,7 +16982,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3244934082031</v>
+        <v>475.3245239257812</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -17454,7 +17454,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916442871094</v>
+        <v>453.0916137695312</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -17572,7 +17572,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.2090148925781</v>
+        <v>467.208984375</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>
@@ -23957,7 +23957,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775390625</v>
+        <v>442.9775085449219</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -24072,7 +24072,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4739990234375</v>
+        <v>433.4740295410156</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -24249,7 +24249,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264526367188</v>
+        <v>436.4264831542969</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -24367,7 +24367,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390625</v>
+        <v>441.0390319824219</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -24426,7 +24426,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492004394531</v>
+        <v>437.6492309570312</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -24485,7 +24485,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457763671875</v>
+        <v>436.5457458496094</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -24603,7 +24603,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706726074219</v>
+        <v>435.4706420898438</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -24662,7 +24662,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556030273438</v>
+        <v>436.5556335449219</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -24721,7 +24721,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.731689453125</v>
+        <v>441.7317199707031</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -24780,7 +24780,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8221130371094</v>
+        <v>443.8220825195312</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -24839,7 +24839,7 @@
         <v>76.48999786376953</v>
       </c>
       <c r="H17">
-        <v>444.3297424316406</v>
+        <v>444.3297729492188</v>
       </c>
       <c r="I17">
         <v>-0.6642838690284227</v>
@@ -24957,7 +24957,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2838134765625</v>
+        <v>441.2837829589844</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -25075,7 +25075,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="H21">
-        <v>441.9706420898438</v>
+        <v>441.9706726074219</v>
       </c>
       <c r="I21">
         <v>-0.6336477332310911</v>
@@ -25311,7 +25311,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404235839844</v>
+        <v>433.3404541015625</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -25370,7 +25370,7 @@
         <v>90.58000183105469</v>
       </c>
       <c r="H26">
-        <v>438.4468994140625</v>
+        <v>438.4468688964844</v>
       </c>
       <c r="I26">
         <v>-0.5899923797973738</v>
@@ -25429,7 +25429,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5762939453125</v>
+        <v>438.5763244628906</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -25488,7 +25488,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1987915039062</v>
+        <v>440.1988220214844</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -25547,7 +25547,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565368652344</v>
+        <v>436.3565063476562</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -25665,7 +25665,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2569885253906</v>
+        <v>436.2570190429688</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -25842,7 +25842,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840942382812</v>
+        <v>423.8840637207031</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -25901,7 +25901,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652709960938</v>
+        <v>421.4652404785156</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -25960,7 +25960,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454528808594</v>
+        <v>412.7454833984375</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -26019,7 +26019,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963623046875</v>
+        <v>416.8963317871094</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -26078,7 +26078,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176147460938</v>
+        <v>423.1176452636719</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -26845,7 +26845,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0295715332031</v>
+        <v>440.0296020507812</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -26963,7 +26963,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8817749023438</v>
+        <v>443.8818054199219</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -27081,7 +27081,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.904052734375</v>
+        <v>449.9040222167969</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -27199,7 +27199,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.820556640625</v>
+        <v>452.8205871582031</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -27317,7 +27317,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168518066406</v>
+        <v>453.6168823242188</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -27435,7 +27435,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8465881347656</v>
+        <v>455.8466186523438</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -27494,7 +27494,7 @@
         <v>81.63999938964844</v>
       </c>
       <c r="H62">
-        <v>457.5686645507812</v>
+        <v>457.5686340332031</v>
       </c>
       <c r="I62">
         <v>-0.2061509673297133</v>
@@ -27553,7 +27553,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435668945312</v>
+        <v>454.3435363769531</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -27671,7 +27671,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398620605469</v>
+        <v>448.6398315429688</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -27730,7 +27730,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487365722656</v>
+        <v>451.0487670898438</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -28025,7 +28025,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6950073242188</v>
+        <v>462.6949768066406</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -28143,7 +28143,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.97216796875</v>
+        <v>471.9721984863281</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -28320,7 +28320,7 @@
         <v>83.33999633789062</v>
       </c>
       <c r="H76">
-        <v>482.8320922851562</v>
+        <v>482.8320617675781</v>
       </c>
       <c r="I76">
         <v>-0.4115599555633263</v>
@@ -28438,7 +28438,7 @@
         <v>85.72000122070312</v>
       </c>
       <c r="H78">
-        <v>479.2585754394531</v>
+        <v>479.2586059570312</v>
       </c>
       <c r="I78">
         <v>-0.3423311013641527</v>
@@ -28497,7 +28497,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9744873046875</v>
+        <v>477.9745178222656</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -28674,7 +28674,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236145019531</v>
+        <v>478.9236450195312</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -28910,7 +28910,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137329101562</v>
+        <v>485.5137634277344</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -29028,7 +29028,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6660766601562</v>
+        <v>494.6661071777344</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -29500,7 +29500,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3193969726562</v>
+        <v>480.3194274902344</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -29559,7 +29559,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462951660156</v>
+        <v>478.0462646484375</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -29972,7 +29972,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032348632812</v>
+        <v>462.5032043457031</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -30031,7 +30031,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524047851562</v>
+        <v>456.1524353027344</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -30208,7 +30208,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988342285156</v>
+        <v>447.3988647460938</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -30562,7 +30562,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209045410156</v>
+        <v>450.0209350585938</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -30621,7 +30621,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871643066406</v>
+        <v>461.1871948242188</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -30739,7 +30739,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915771484375</v>
+        <v>472.9915466308594</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -31211,7 +31211,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3244934082031</v>
+        <v>475.3245239257812</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -31683,7 +31683,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916442871094</v>
+        <v>453.0916137695312</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -31801,7 +31801,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.2090148925781</v>
+        <v>467.208984375</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>

--- a/Data/Strategy 2 Performance.xlsx
+++ b/Data/Strategy 2 Performance.xlsx
@@ -612,7 +612,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4740295410156</v>
+        <v>433.4739990234375</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -764,7 +764,7 @@
         <v>88.97000122070312</v>
       </c>
       <c r="H8">
-        <v>434.8060913085938</v>
+        <v>434.8061218261719</v>
       </c>
       <c r="I8">
         <v>-0.7008499236131106</v>
@@ -802,7 +802,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390319824219</v>
+        <v>441.0390930175781</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -840,7 +840,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492309570312</v>
+        <v>437.6492004394531</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -878,7 +878,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457458496094</v>
+        <v>436.5457763671875</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -916,7 +916,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3565979003906</v>
+        <v>431.3566284179688</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -992,7 +992,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556335449219</v>
+        <v>436.5556030273438</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -1106,7 +1106,7 @@
         <v>76.48999786376953</v>
       </c>
       <c r="H17">
-        <v>444.3297729492188</v>
+        <v>444.3297424316406</v>
       </c>
       <c r="I17">
         <v>-0.6642838690284227</v>
@@ -1144,7 +1144,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171936035156</v>
+        <v>442.7171630859375</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -1220,7 +1220,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.7868347167969</v>
+        <v>442.786865234375</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1258,7 +1258,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="H21">
-        <v>441.9706726074219</v>
+        <v>441.9706420898438</v>
       </c>
       <c r="I21">
         <v>-0.6336477332310911</v>
@@ -1296,7 +1296,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063110351562</v>
+        <v>442.9063415527344</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -1448,7 +1448,7 @@
         <v>90.58000183105469</v>
       </c>
       <c r="H26">
-        <v>438.4468688964844</v>
+        <v>438.4468994140625</v>
       </c>
       <c r="I26">
         <v>-0.5899923797973738</v>
@@ -1486,7 +1486,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5763244628906</v>
+        <v>438.5762939453125</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -1524,7 +1524,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1988220214844</v>
+        <v>440.1987915039062</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -1562,7 +1562,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565063476562</v>
+        <v>436.3565368652344</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -1638,7 +1638,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2570190429688</v>
+        <v>436.2569885253906</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -1904,7 +1904,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176452636719</v>
+        <v>423.1176147460938</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -1942,7 +1942,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.551025390625</v>
+        <v>424.5509948730469</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -1980,7 +1980,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.50048828125</v>
+        <v>422.5005187988281</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -2094,7 +2094,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398315429688</v>
+        <v>422.6398010253906</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2132,7 +2132,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5838928222656</v>
+        <v>419.5839233398438</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -2208,7 +2208,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4798278808594</v>
+        <v>433.4797973632812</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -2246,7 +2246,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2279052734375</v>
+        <v>438.2278747558594</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2322,7 +2322,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387878417969</v>
+        <v>438.0387573242188</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2398,7 +2398,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0296020507812</v>
+        <v>440.0295715332031</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -2474,7 +2474,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818054199219</v>
+        <v>443.8818359375</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2550,7 +2550,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.9040222167969</v>
+        <v>449.904052734375</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -2626,7 +2626,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.8205871582031</v>
+        <v>452.820556640625</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -2664,7 +2664,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064819335938</v>
+        <v>453.7064514160156</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -2778,7 +2778,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466186523438</v>
+        <v>455.8466491699219</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2816,7 +2816,7 @@
         <v>81.63999938964844</v>
       </c>
       <c r="H62">
-        <v>457.5686340332031</v>
+        <v>457.5686645507812</v>
       </c>
       <c r="I62">
         <v>-0.2061509673297133</v>
@@ -2968,7 +2968,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487670898438</v>
+        <v>451.0487365722656</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -3158,7 +3158,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6949768066406</v>
+        <v>462.6950073242188</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -3234,7 +3234,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.9721984863281</v>
+        <v>471.97216796875</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -3272,7 +3272,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303649902344</v>
+        <v>474.5303955078125</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -3348,7 +3348,7 @@
         <v>83.33999633789062</v>
       </c>
       <c r="H76">
-        <v>482.8320617675781</v>
+        <v>482.8320922851562</v>
       </c>
       <c r="I76">
         <v>-0.4115599555633263</v>
@@ -3424,7 +3424,7 @@
         <v>85.72000122070312</v>
       </c>
       <c r="H78">
-        <v>479.2586059570312</v>
+        <v>479.2585754394531</v>
       </c>
       <c r="I78">
         <v>-0.3423311013641527</v>
@@ -3462,7 +3462,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9745178222656</v>
+        <v>477.9744873046875</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -3576,7 +3576,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236450195312</v>
+        <v>478.9236145019531</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -3728,7 +3728,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137634277344</v>
+        <v>485.5137329101562</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -3804,7 +3804,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6661071777344</v>
+        <v>494.6660766601562</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -4108,7 +4108,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3194274902344</v>
+        <v>480.3193969726562</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -4146,7 +4146,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462646484375</v>
+        <v>478.0462951660156</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -4412,7 +4412,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032043457031</v>
+        <v>462.5032348632812</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -4450,7 +4450,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524353027344</v>
+        <v>456.1524047851562</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -4564,7 +4564,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988647460938</v>
+        <v>447.3988342285156</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -4792,7 +4792,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209350585938</v>
+        <v>450.0209045410156</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -4830,7 +4830,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871948242188</v>
+        <v>461.1871643066406</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -4906,7 +4906,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915466308594</v>
+        <v>472.9915771484375</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -5210,7 +5210,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3245239257812</v>
+        <v>475.3244934082031</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -5514,7 +5514,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916137695312</v>
+        <v>453.0916442871094</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -5590,7 +5590,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.208984375</v>
+        <v>467.2090148925781</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>
@@ -9843,7 +9843,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4740295410156</v>
+        <v>433.4739990234375</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -10079,7 +10079,7 @@
         <v>88.97000122070312</v>
       </c>
       <c r="H8">
-        <v>434.8060913085938</v>
+        <v>434.8061218261719</v>
       </c>
       <c r="I8">
         <v>-0.7008499236131106</v>
@@ -10138,7 +10138,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390319824219</v>
+        <v>441.0390930175781</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -10197,7 +10197,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492309570312</v>
+        <v>437.6492004394531</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -10256,7 +10256,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457458496094</v>
+        <v>436.5457763671875</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -10315,7 +10315,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3565979003906</v>
+        <v>431.3566284179688</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -10433,7 +10433,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556335449219</v>
+        <v>436.5556030273438</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -10610,7 +10610,7 @@
         <v>76.48999786376953</v>
       </c>
       <c r="H17">
-        <v>444.3297729492188</v>
+        <v>444.3297424316406</v>
       </c>
       <c r="I17">
         <v>-0.6642838690284227</v>
@@ -10669,7 +10669,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171936035156</v>
+        <v>442.7171630859375</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -10787,7 +10787,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.7868347167969</v>
+        <v>442.786865234375</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -10846,7 +10846,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="H21">
-        <v>441.9706726074219</v>
+        <v>441.9706420898438</v>
       </c>
       <c r="I21">
         <v>-0.6336477332310911</v>
@@ -10905,7 +10905,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063110351562</v>
+        <v>442.9063415527344</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -11141,7 +11141,7 @@
         <v>90.58000183105469</v>
       </c>
       <c r="H26">
-        <v>438.4468688964844</v>
+        <v>438.4468994140625</v>
       </c>
       <c r="I26">
         <v>-0.5899923797973738</v>
@@ -11200,7 +11200,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5763244628906</v>
+        <v>438.5762939453125</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -11259,7 +11259,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1988220214844</v>
+        <v>440.1987915039062</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -11318,7 +11318,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565063476562</v>
+        <v>436.3565368652344</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -11436,7 +11436,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2570190429688</v>
+        <v>436.2569885253906</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -11849,7 +11849,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176452636719</v>
+        <v>423.1176147460938</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -11908,7 +11908,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.551025390625</v>
+        <v>424.5509948730469</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -11967,7 +11967,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.50048828125</v>
+        <v>422.5005187988281</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -12144,7 +12144,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398315429688</v>
+        <v>422.6398010253906</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -12203,7 +12203,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5838928222656</v>
+        <v>419.5839233398438</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -12321,7 +12321,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4798278808594</v>
+        <v>433.4797973632812</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -12380,7 +12380,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2279052734375</v>
+        <v>438.2278747558594</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -12498,7 +12498,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387878417969</v>
+        <v>438.0387573242188</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -12616,7 +12616,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0296020507812</v>
+        <v>440.0295715332031</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -12734,7 +12734,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818054199219</v>
+        <v>443.8818359375</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -12852,7 +12852,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.9040222167969</v>
+        <v>449.904052734375</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -12970,7 +12970,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.8205871582031</v>
+        <v>452.820556640625</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -13029,7 +13029,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064819335938</v>
+        <v>453.7064514160156</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -13206,7 +13206,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466186523438</v>
+        <v>455.8466491699219</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -13265,7 +13265,7 @@
         <v>81.63999938964844</v>
       </c>
       <c r="H62">
-        <v>457.5686340332031</v>
+        <v>457.5686645507812</v>
       </c>
       <c r="I62">
         <v>-0.2061509673297133</v>
@@ -13501,7 +13501,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487670898438</v>
+        <v>451.0487365722656</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -13796,7 +13796,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6949768066406</v>
+        <v>462.6950073242188</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -13914,7 +13914,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.9721984863281</v>
+        <v>471.97216796875</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -13973,7 +13973,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303649902344</v>
+        <v>474.5303955078125</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -14091,7 +14091,7 @@
         <v>83.33999633789062</v>
       </c>
       <c r="H76">
-        <v>482.8320617675781</v>
+        <v>482.8320922851562</v>
       </c>
       <c r="I76">
         <v>-0.4115599555633263</v>
@@ -14209,7 +14209,7 @@
         <v>85.72000122070312</v>
       </c>
       <c r="H78">
-        <v>479.2586059570312</v>
+        <v>479.2585754394531</v>
       </c>
       <c r="I78">
         <v>-0.3423311013641527</v>
@@ -14268,7 +14268,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9745178222656</v>
+        <v>477.9744873046875</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -14445,7 +14445,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236450195312</v>
+        <v>478.9236145019531</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -14681,7 +14681,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137634277344</v>
+        <v>485.5137329101562</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -14799,7 +14799,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6661071777344</v>
+        <v>494.6660766601562</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -15271,7 +15271,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3194274902344</v>
+        <v>480.3193969726562</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -15330,7 +15330,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462646484375</v>
+        <v>478.0462951660156</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -15743,7 +15743,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032043457031</v>
+        <v>462.5032348632812</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -15802,7 +15802,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524353027344</v>
+        <v>456.1524047851562</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -15979,7 +15979,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988647460938</v>
+        <v>447.3988342285156</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -16333,7 +16333,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209350585938</v>
+        <v>450.0209045410156</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -16392,7 +16392,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871948242188</v>
+        <v>461.1871643066406</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -16510,7 +16510,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915466308594</v>
+        <v>472.9915771484375</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -16982,7 +16982,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3245239257812</v>
+        <v>475.3244934082031</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -17454,7 +17454,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916137695312</v>
+        <v>453.0916442871094</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -17572,7 +17572,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.208984375</v>
+        <v>467.2090148925781</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>
@@ -24072,7 +24072,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4740295410156</v>
+        <v>433.4739990234375</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -24308,7 +24308,7 @@
         <v>88.97000122070312</v>
       </c>
       <c r="H8">
-        <v>434.8060913085938</v>
+        <v>434.8061218261719</v>
       </c>
       <c r="I8">
         <v>-0.7008499236131106</v>
@@ -24367,7 +24367,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390319824219</v>
+        <v>441.0390930175781</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -24426,7 +24426,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492309570312</v>
+        <v>437.6492004394531</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -24485,7 +24485,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457458496094</v>
+        <v>436.5457763671875</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -24544,7 +24544,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3565979003906</v>
+        <v>431.3566284179688</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -24662,7 +24662,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556335449219</v>
+        <v>436.5556030273438</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -24839,7 +24839,7 @@
         <v>76.48999786376953</v>
       </c>
       <c r="H17">
-        <v>444.3297729492188</v>
+        <v>444.3297424316406</v>
       </c>
       <c r="I17">
         <v>-0.6642838690284227</v>
@@ -24898,7 +24898,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171936035156</v>
+        <v>442.7171630859375</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -25016,7 +25016,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.7868347167969</v>
+        <v>442.786865234375</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -25075,7 +25075,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="H21">
-        <v>441.9706726074219</v>
+        <v>441.9706420898438</v>
       </c>
       <c r="I21">
         <v>-0.6336477332310911</v>
@@ -25134,7 +25134,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063110351562</v>
+        <v>442.9063415527344</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -25370,7 +25370,7 @@
         <v>90.58000183105469</v>
       </c>
       <c r="H26">
-        <v>438.4468688964844</v>
+        <v>438.4468994140625</v>
       </c>
       <c r="I26">
         <v>-0.5899923797973738</v>
@@ -25429,7 +25429,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5763244628906</v>
+        <v>438.5762939453125</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -25488,7 +25488,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1988220214844</v>
+        <v>440.1987915039062</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -25547,7 +25547,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565063476562</v>
+        <v>436.3565368652344</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -25665,7 +25665,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2570190429688</v>
+        <v>436.2569885253906</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -26078,7 +26078,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176452636719</v>
+        <v>423.1176147460938</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -26137,7 +26137,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.551025390625</v>
+        <v>424.5509948730469</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -26196,7 +26196,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.50048828125</v>
+        <v>422.5005187988281</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -26373,7 +26373,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398315429688</v>
+        <v>422.6398010253906</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -26432,7 +26432,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5838928222656</v>
+        <v>419.5839233398438</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -26550,7 +26550,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4798278808594</v>
+        <v>433.4797973632812</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -26609,7 +26609,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2279052734375</v>
+        <v>438.2278747558594</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -26727,7 +26727,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387878417969</v>
+        <v>438.0387573242188</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -26845,7 +26845,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0296020507812</v>
+        <v>440.0295715332031</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -26963,7 +26963,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818054199219</v>
+        <v>443.8818359375</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -27081,7 +27081,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.9040222167969</v>
+        <v>449.904052734375</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -27199,7 +27199,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.8205871582031</v>
+        <v>452.820556640625</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -27258,7 +27258,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064819335938</v>
+        <v>453.7064514160156</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -27435,7 +27435,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466186523438</v>
+        <v>455.8466491699219</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -27494,7 +27494,7 @@
         <v>81.63999938964844</v>
       </c>
       <c r="H62">
-        <v>457.5686340332031</v>
+        <v>457.5686645507812</v>
       </c>
       <c r="I62">
         <v>-0.2061509673297133</v>
@@ -27730,7 +27730,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487670898438</v>
+        <v>451.0487365722656</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -28025,7 +28025,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6949768066406</v>
+        <v>462.6950073242188</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -28143,7 +28143,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.9721984863281</v>
+        <v>471.97216796875</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -28202,7 +28202,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303649902344</v>
+        <v>474.5303955078125</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -28320,7 +28320,7 @@
         <v>83.33999633789062</v>
       </c>
       <c r="H76">
-        <v>482.8320617675781</v>
+        <v>482.8320922851562</v>
       </c>
       <c r="I76">
         <v>-0.4115599555633263</v>
@@ -28438,7 +28438,7 @@
         <v>85.72000122070312</v>
       </c>
       <c r="H78">
-        <v>479.2586059570312</v>
+        <v>479.2585754394531</v>
       </c>
       <c r="I78">
         <v>-0.3423311013641527</v>
@@ -28497,7 +28497,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9745178222656</v>
+        <v>477.9744873046875</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -28674,7 +28674,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236450195312</v>
+        <v>478.9236145019531</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -28910,7 +28910,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137634277344</v>
+        <v>485.5137329101562</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -29028,7 +29028,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6661071777344</v>
+        <v>494.6660766601562</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -29500,7 +29500,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3194274902344</v>
+        <v>480.3193969726562</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -29559,7 +29559,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462646484375</v>
+        <v>478.0462951660156</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -29972,7 +29972,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032043457031</v>
+        <v>462.5032348632812</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -30031,7 +30031,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524353027344</v>
+        <v>456.1524047851562</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -30208,7 +30208,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988647460938</v>
+        <v>447.3988342285156</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -30562,7 +30562,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209350585938</v>
+        <v>450.0209045410156</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -30621,7 +30621,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871948242188</v>
+        <v>461.1871643066406</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -30739,7 +30739,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915466308594</v>
+        <v>472.9915771484375</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -31211,7 +31211,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3245239257812</v>
+        <v>475.3244934082031</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -31683,7 +31683,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916137695312</v>
+        <v>453.0916442871094</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -31801,7 +31801,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.208984375</v>
+        <v>467.2090148925781</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>

--- a/Data/Strategy 2 Performance.xlsx
+++ b/Data/Strategy 2 Performance.xlsx
@@ -536,7 +536,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775085449219</v>
+        <v>442.9775390625</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -574,7 +574,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969116210938</v>
+        <v>441.3969421386719</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -802,7 +802,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390930175781</v>
+        <v>441.0390625</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -840,7 +840,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492004394531</v>
+        <v>437.649169921875</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -916,7 +916,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566284179688</v>
+        <v>431.3565979003906</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -954,7 +954,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706420898438</v>
+        <v>435.4706726074219</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -1030,7 +1030,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.7317199707031</v>
+        <v>441.731689453125</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -1068,7 +1068,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1144,7 +1144,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171630859375</v>
+        <v>442.7171936035156</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -1182,7 +1182,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2837829589844</v>
+        <v>441.2838134765625</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -1220,7 +1220,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1296,7 +1296,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063415527344</v>
+        <v>442.9063110351562</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -1410,7 +1410,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1752,7 +1752,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840637207031</v>
+        <v>423.8840942382812</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -1790,7 +1790,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652404785156</v>
+        <v>421.4652709960938</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -1828,7 +1828,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454833984375</v>
+        <v>412.7454528808594</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -1866,7 +1866,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963317871094</v>
+        <v>416.8963623046875</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -1942,7 +1942,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.5509948730469</v>
+        <v>424.551025390625</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -1980,7 +1980,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -2094,7 +2094,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2132,7 +2132,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5839233398438</v>
+        <v>419.5838928222656</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -2208,7 +2208,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4797973632812</v>
+        <v>433.4798278808594</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -2246,7 +2246,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2322,7 +2322,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2474,7 +2474,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818359375</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2664,7 +2664,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064514160156</v>
+        <v>453.7064819335938</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -2702,7 +2702,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168823242188</v>
+        <v>453.6168518066406</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -2778,7 +2778,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466491699219</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2854,7 +2854,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2930,7 +2930,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -3272,7 +3272,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303955078125</v>
+        <v>474.5303649902344</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -9728,7 +9728,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775085449219</v>
+        <v>442.9775390625</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -9784,7 +9784,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969116210938</v>
+        <v>441.3969421386719</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -10138,7 +10138,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390930175781</v>
+        <v>441.0390625</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -10197,7 +10197,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492004394531</v>
+        <v>437.649169921875</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -10315,7 +10315,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566284179688</v>
+        <v>431.3565979003906</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -10374,7 +10374,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706420898438</v>
+        <v>435.4706726074219</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -10492,7 +10492,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.7317199707031</v>
+        <v>441.731689453125</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -10551,7 +10551,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -10669,7 +10669,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171630859375</v>
+        <v>442.7171936035156</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -10728,7 +10728,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2837829589844</v>
+        <v>441.2838134765625</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -10787,7 +10787,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -10905,7 +10905,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063415527344</v>
+        <v>442.9063110351562</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -11082,7 +11082,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -11613,7 +11613,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840637207031</v>
+        <v>423.8840942382812</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -11672,7 +11672,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652404785156</v>
+        <v>421.4652709960938</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -11731,7 +11731,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454833984375</v>
+        <v>412.7454528808594</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -11790,7 +11790,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963317871094</v>
+        <v>416.8963623046875</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -11908,7 +11908,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.5509948730469</v>
+        <v>424.551025390625</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -11967,7 +11967,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -12144,7 +12144,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -12203,7 +12203,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5839233398438</v>
+        <v>419.5838928222656</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -12321,7 +12321,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4797973632812</v>
+        <v>433.4798278808594</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -12380,7 +12380,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -12498,7 +12498,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -12734,7 +12734,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818359375</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -13029,7 +13029,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064514160156</v>
+        <v>453.7064819335938</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -13088,7 +13088,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168823242188</v>
+        <v>453.6168518066406</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -13206,7 +13206,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466491699219</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -13324,7 +13324,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -13442,7 +13442,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -13973,7 +13973,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303955078125</v>
+        <v>474.5303649902344</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -23957,7 +23957,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775085449219</v>
+        <v>442.9775390625</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -24013,7 +24013,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969116210938</v>
+        <v>441.3969421386719</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -24367,7 +24367,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390930175781</v>
+        <v>441.0390625</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -24426,7 +24426,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492004394531</v>
+        <v>437.649169921875</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -24544,7 +24544,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566284179688</v>
+        <v>431.3565979003906</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -24603,7 +24603,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706420898438</v>
+        <v>435.4706726074219</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -24721,7 +24721,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.7317199707031</v>
+        <v>441.731689453125</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -24780,7 +24780,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -24898,7 +24898,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171630859375</v>
+        <v>442.7171936035156</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -24957,7 +24957,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2837829589844</v>
+        <v>441.2838134765625</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -25016,7 +25016,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -25134,7 +25134,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063415527344</v>
+        <v>442.9063110351562</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -25311,7 +25311,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -25842,7 +25842,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840637207031</v>
+        <v>423.8840942382812</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -25901,7 +25901,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652404785156</v>
+        <v>421.4652709960938</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -25960,7 +25960,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454833984375</v>
+        <v>412.7454528808594</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -26019,7 +26019,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963317871094</v>
+        <v>416.8963623046875</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -26137,7 +26137,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.5509948730469</v>
+        <v>424.551025390625</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -26196,7 +26196,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -26373,7 +26373,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -26432,7 +26432,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5839233398438</v>
+        <v>419.5838928222656</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -26550,7 +26550,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4797973632812</v>
+        <v>433.4798278808594</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -26609,7 +26609,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -26727,7 +26727,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -26963,7 +26963,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818359375</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -27258,7 +27258,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064514160156</v>
+        <v>453.7064819335938</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -27317,7 +27317,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168823242188</v>
+        <v>453.6168518066406</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -27435,7 +27435,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466491699219</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -27553,7 +27553,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -27671,7 +27671,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -28202,7 +28202,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303955078125</v>
+        <v>474.5303649902344</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>

--- a/Data/Strategy 2 Performance.xlsx
+++ b/Data/Strategy 2 Performance.xlsx
@@ -536,7 +536,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775085449219</v>
+        <v>442.9775390625</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -574,7 +574,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969116210938</v>
+        <v>441.3969421386719</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -612,7 +612,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4739685058594</v>
+        <v>433.4739990234375</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -650,7 +650,7 @@
         <v>83.11000061035156</v>
       </c>
       <c r="H5">
-        <v>436.1978149414062</v>
+        <v>436.1978454589844</v>
       </c>
       <c r="I5">
         <v>-0.7068673055262625</v>
@@ -726,7 +726,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264526367188</v>
+        <v>436.4264831542969</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -764,7 +764,7 @@
         <v>88.97000122070312</v>
       </c>
       <c r="H8">
-        <v>434.8061218261719</v>
+        <v>434.8060913085938</v>
       </c>
       <c r="I8">
         <v>-0.7008499236131106</v>
@@ -840,7 +840,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.649169921875</v>
+        <v>437.6492309570312</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -916,7 +916,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3565979003906</v>
+        <v>431.3566284179688</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -992,7 +992,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556030273438</v>
+        <v>436.5556335449219</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -1030,7 +1030,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.7317199707031</v>
+        <v>441.731689453125</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -1068,7 +1068,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1144,7 +1144,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171630859375</v>
+        <v>442.7171936035156</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -1182,7 +1182,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2837829589844</v>
+        <v>441.2838134765625</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -1220,7 +1220,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1296,7 +1296,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063415527344</v>
+        <v>442.9063110351562</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -1410,7 +1410,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1486,7 +1486,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5762939453125</v>
+        <v>438.5763244628906</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -1524,7 +1524,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1987915039062</v>
+        <v>440.1988220214844</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -1562,7 +1562,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565368652344</v>
+        <v>436.3565063476562</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -1638,7 +1638,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2569885253906</v>
+        <v>436.2570190429688</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -1866,7 +1866,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963317871094</v>
+        <v>416.8963623046875</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -1904,7 +1904,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176147460938</v>
+        <v>423.1176452636719</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -1942,7 +1942,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.5509948730469</v>
+        <v>424.551025390625</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -1980,7 +1980,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -2018,7 +2018,7 @@
         <v>79.55999755859375</v>
       </c>
       <c r="H41">
-        <v>429.0203857421875</v>
+        <v>429.0203552246094</v>
       </c>
       <c r="I41">
         <v>-0.6217134896209225</v>
@@ -2094,7 +2094,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2208,7 +2208,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4797973632812</v>
+        <v>433.4798278808594</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -2246,7 +2246,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2322,7 +2322,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2360,7 +2360,7 @@
         <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.9943542480469</v>
+        <v>438.9943237304688</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
@@ -2398,7 +2398,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0295715332031</v>
+        <v>440.0296020507812</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -2474,7 +2474,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818359375</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2550,7 +2550,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.904052734375</v>
+        <v>449.9040222167969</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -2626,7 +2626,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.820556640625</v>
+        <v>452.8205871582031</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -2664,7 +2664,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064514160156</v>
+        <v>453.7064819335938</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -2778,7 +2778,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466491699219</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2854,7 +2854,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2930,7 +2930,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -2968,7 +2968,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487365722656</v>
+        <v>451.0487670898438</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -3082,7 +3082,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="H69">
-        <v>461.24169921875</v>
+        <v>461.2416687011719</v>
       </c>
       <c r="I69">
         <v>0.03933998528229735</v>
@@ -3158,7 +3158,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6950073242188</v>
+        <v>462.6949768066406</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -3234,7 +3234,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.97216796875</v>
+        <v>471.9721984863281</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -3462,7 +3462,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9744873046875</v>
+        <v>477.9745178222656</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -3576,7 +3576,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236145019531</v>
+        <v>478.9236450195312</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -3728,7 +3728,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137329101562</v>
+        <v>485.5137634277344</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -3804,7 +3804,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6660766601562</v>
+        <v>494.6661071777344</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -4108,7 +4108,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3193969726562</v>
+        <v>480.3194274902344</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -4146,7 +4146,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462951660156</v>
+        <v>478.0462646484375</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -4412,7 +4412,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032348632812</v>
+        <v>462.5032043457031</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -4450,7 +4450,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524047851562</v>
+        <v>456.1524353027344</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -4564,7 +4564,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988342285156</v>
+        <v>447.3988647460938</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -4792,7 +4792,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209045410156</v>
+        <v>450.0209350585938</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -4830,7 +4830,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871643066406</v>
+        <v>461.1871948242188</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -4906,7 +4906,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915771484375</v>
+        <v>472.9915466308594</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -5210,7 +5210,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3244934082031</v>
+        <v>475.3245239257812</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -5514,7 +5514,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916442871094</v>
+        <v>453.0916137695312</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -5590,7 +5590,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.2090148925781</v>
+        <v>467.208984375</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>
@@ -9728,7 +9728,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775085449219</v>
+        <v>442.9775390625</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -9784,7 +9784,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969116210938</v>
+        <v>441.3969421386719</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -9843,7 +9843,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4739685058594</v>
+        <v>433.4739990234375</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -9902,7 +9902,7 @@
         <v>83.11000061035156</v>
       </c>
       <c r="H5">
-        <v>436.1978149414062</v>
+        <v>436.1978454589844</v>
       </c>
       <c r="I5">
         <v>-0.7068673055262625</v>
@@ -10020,7 +10020,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264526367188</v>
+        <v>436.4264831542969</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -10079,7 +10079,7 @@
         <v>88.97000122070312</v>
       </c>
       <c r="H8">
-        <v>434.8061218261719</v>
+        <v>434.8060913085938</v>
       </c>
       <c r="I8">
         <v>-0.7008499236131106</v>
@@ -10197,7 +10197,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.649169921875</v>
+        <v>437.6492309570312</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -10315,7 +10315,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3565979003906</v>
+        <v>431.3566284179688</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -10433,7 +10433,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556030273438</v>
+        <v>436.5556335449219</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -10492,7 +10492,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.7317199707031</v>
+        <v>441.731689453125</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -10551,7 +10551,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -10669,7 +10669,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171630859375</v>
+        <v>442.7171936035156</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -10728,7 +10728,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2837829589844</v>
+        <v>441.2838134765625</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -10787,7 +10787,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -10905,7 +10905,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063415527344</v>
+        <v>442.9063110351562</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -11082,7 +11082,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -11200,7 +11200,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5762939453125</v>
+        <v>438.5763244628906</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -11259,7 +11259,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1987915039062</v>
+        <v>440.1988220214844</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -11318,7 +11318,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565368652344</v>
+        <v>436.3565063476562</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -11436,7 +11436,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2569885253906</v>
+        <v>436.2570190429688</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -11790,7 +11790,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963317871094</v>
+        <v>416.8963623046875</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -11849,7 +11849,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176147460938</v>
+        <v>423.1176452636719</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -11908,7 +11908,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.5509948730469</v>
+        <v>424.551025390625</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -11967,7 +11967,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -12026,7 +12026,7 @@
         <v>79.55999755859375</v>
       </c>
       <c r="H41">
-        <v>429.0203857421875</v>
+        <v>429.0203552246094</v>
       </c>
       <c r="I41">
         <v>-0.6217134896209225</v>
@@ -12144,7 +12144,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -12321,7 +12321,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4797973632812</v>
+        <v>433.4798278808594</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -12380,7 +12380,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -12498,7 +12498,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -12557,7 +12557,7 @@
         <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.9943542480469</v>
+        <v>438.9943237304688</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
@@ -12616,7 +12616,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0295715332031</v>
+        <v>440.0296020507812</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -12734,7 +12734,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818359375</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -12852,7 +12852,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.904052734375</v>
+        <v>449.9040222167969</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -12970,7 +12970,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.820556640625</v>
+        <v>452.8205871582031</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -13029,7 +13029,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064514160156</v>
+        <v>453.7064819335938</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -13206,7 +13206,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466491699219</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -13324,7 +13324,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -13442,7 +13442,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -13501,7 +13501,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487365722656</v>
+        <v>451.0487670898438</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -13678,7 +13678,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="H69">
-        <v>461.24169921875</v>
+        <v>461.2416687011719</v>
       </c>
       <c r="I69">
         <v>0.03933998528229735</v>
@@ -13796,7 +13796,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6950073242188</v>
+        <v>462.6949768066406</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -13914,7 +13914,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.97216796875</v>
+        <v>471.9721984863281</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -14268,7 +14268,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9744873046875</v>
+        <v>477.9745178222656</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -14445,7 +14445,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236145019531</v>
+        <v>478.9236450195312</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -14681,7 +14681,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137329101562</v>
+        <v>485.5137634277344</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -14799,7 +14799,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6660766601562</v>
+        <v>494.6661071777344</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -15271,7 +15271,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3193969726562</v>
+        <v>480.3194274902344</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -15330,7 +15330,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462951660156</v>
+        <v>478.0462646484375</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -15743,7 +15743,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032348632812</v>
+        <v>462.5032043457031</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -15802,7 +15802,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524047851562</v>
+        <v>456.1524353027344</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -15979,7 +15979,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988342285156</v>
+        <v>447.3988647460938</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -16333,7 +16333,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209045410156</v>
+        <v>450.0209350585938</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -16392,7 +16392,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871643066406</v>
+        <v>461.1871948242188</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -16510,7 +16510,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915771484375</v>
+        <v>472.9915466308594</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -16982,7 +16982,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3244934082031</v>
+        <v>475.3245239257812</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -17454,7 +17454,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916442871094</v>
+        <v>453.0916137695312</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -17572,7 +17572,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.2090148925781</v>
+        <v>467.208984375</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>
@@ -23957,7 +23957,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775085449219</v>
+        <v>442.9775390625</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -24013,7 +24013,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969116210938</v>
+        <v>441.3969421386719</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -24072,7 +24072,7 @@
         <v>83.91000366210938</v>
       </c>
       <c r="H4">
-        <v>433.4739685058594</v>
+        <v>433.4739990234375</v>
       </c>
       <c r="I4">
         <v>-0.6754169777466297</v>
@@ -24131,7 +24131,7 @@
         <v>83.11000061035156</v>
       </c>
       <c r="H5">
-        <v>436.1978149414062</v>
+        <v>436.1978454589844</v>
       </c>
       <c r="I5">
         <v>-0.7068673055262625</v>
@@ -24249,7 +24249,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264526367188</v>
+        <v>436.4264831542969</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -24308,7 +24308,7 @@
         <v>88.97000122070312</v>
       </c>
       <c r="H8">
-        <v>434.8061218261719</v>
+        <v>434.8060913085938</v>
       </c>
       <c r="I8">
         <v>-0.7008499236131106</v>
@@ -24426,7 +24426,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.649169921875</v>
+        <v>437.6492309570312</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -24544,7 +24544,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3565979003906</v>
+        <v>431.3566284179688</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -24662,7 +24662,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556030273438</v>
+        <v>436.5556335449219</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -24721,7 +24721,7 @@
         <v>78.87000274658203</v>
       </c>
       <c r="H15">
-        <v>441.7317199707031</v>
+        <v>441.731689453125</v>
       </c>
       <c r="I15">
         <v>-0.6832541346443632</v>
@@ -24780,7 +24780,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -24898,7 +24898,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="H18">
-        <v>442.7171630859375</v>
+        <v>442.7171936035156</v>
       </c>
       <c r="I18">
         <v>-0.6454706266283408</v>
@@ -24957,7 +24957,7 @@
         <v>76.76999664306641</v>
       </c>
       <c r="H19">
-        <v>441.2837829589844</v>
+        <v>441.2838134765625</v>
       </c>
       <c r="I19">
         <v>-0.6463099068643339</v>
@@ -25016,7 +25016,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -25134,7 +25134,7 @@
         <v>78.44999694824219</v>
       </c>
       <c r="H22">
-        <v>442.9063415527344</v>
+        <v>442.9063110351562</v>
       </c>
       <c r="I22">
         <v>-0.6088084677865083</v>
@@ -25311,7 +25311,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -25429,7 +25429,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5762939453125</v>
+        <v>438.5763244628906</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -25488,7 +25488,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1987915039062</v>
+        <v>440.1988220214844</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -25547,7 +25547,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565368652344</v>
+        <v>436.3565063476562</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -25665,7 +25665,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2569885253906</v>
+        <v>436.2570190429688</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -26019,7 +26019,7 @@
         <v>89.54000091552734</v>
       </c>
       <c r="H37">
-        <v>416.8963317871094</v>
+        <v>416.8963623046875</v>
       </c>
       <c r="I37">
         <v>-0.5863115992434601</v>
@@ -26078,7 +26078,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176147460938</v>
+        <v>423.1176452636719</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -26137,7 +26137,7 @@
         <v>83.61000061035156</v>
       </c>
       <c r="H39">
-        <v>424.5509948730469</v>
+        <v>424.551025390625</v>
       </c>
       <c r="I39">
         <v>-0.6329546700206069</v>
@@ -26196,7 +26196,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -26255,7 +26255,7 @@
         <v>79.55999755859375</v>
       </c>
       <c r="H41">
-        <v>429.0203857421875</v>
+        <v>429.0203552246094</v>
       </c>
       <c r="I41">
         <v>-0.6217134896209225</v>
@@ -26373,7 +26373,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -26550,7 +26550,7 @@
         <v>74.56999969482422</v>
       </c>
       <c r="H46">
-        <v>433.4797973632812</v>
+        <v>433.4798278808594</v>
       </c>
       <c r="I46">
         <v>-0.6735026068570344</v>
@@ -26609,7 +26609,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -26727,7 +26727,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -26786,7 +26786,7 @@
         <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.9943542480469</v>
+        <v>438.9943237304688</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
@@ -26845,7 +26845,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0295715332031</v>
+        <v>440.0296020507812</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -26963,7 +26963,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818359375</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -27081,7 +27081,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.904052734375</v>
+        <v>449.9040222167969</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -27199,7 +27199,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.820556640625</v>
+        <v>452.8205871582031</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -27258,7 +27258,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="H58">
-        <v>453.7064514160156</v>
+        <v>453.7064819335938</v>
       </c>
       <c r="I58">
         <v>-0.1394069072157299</v>
@@ -27435,7 +27435,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466491699219</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -27553,7 +27553,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -27671,7 +27671,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -27730,7 +27730,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487365722656</v>
+        <v>451.0487670898438</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -27907,7 +27907,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="H69">
-        <v>461.24169921875</v>
+        <v>461.2416687011719</v>
       </c>
       <c r="I69">
         <v>0.03933998528229735</v>
@@ -28025,7 +28025,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6950073242188</v>
+        <v>462.6949768066406</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -28143,7 +28143,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.97216796875</v>
+        <v>471.9721984863281</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -28497,7 +28497,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9744873046875</v>
+        <v>477.9745178222656</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -28674,7 +28674,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236145019531</v>
+        <v>478.9236450195312</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -28910,7 +28910,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137329101562</v>
+        <v>485.5137634277344</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -29028,7 +29028,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6660766601562</v>
+        <v>494.6661071777344</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -29500,7 +29500,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3193969726562</v>
+        <v>480.3194274902344</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -29559,7 +29559,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462951660156</v>
+        <v>478.0462646484375</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -29972,7 +29972,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032348632812</v>
+        <v>462.5032043457031</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -30031,7 +30031,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524047851562</v>
+        <v>456.1524353027344</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -30208,7 +30208,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988342285156</v>
+        <v>447.3988647460938</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -30562,7 +30562,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209045410156</v>
+        <v>450.0209350585938</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -30621,7 +30621,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871643066406</v>
+        <v>461.1871948242188</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -30739,7 +30739,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915771484375</v>
+        <v>472.9915466308594</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -31211,7 +31211,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3244934082031</v>
+        <v>475.3245239257812</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -31683,7 +31683,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916442871094</v>
+        <v>453.0916137695312</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -31801,7 +31801,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.2090148925781</v>
+        <v>467.208984375</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>

--- a/Data/Strategy 2 Performance.xlsx
+++ b/Data/Strategy 2 Performance.xlsx
@@ -726,7 +726,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264831542969</v>
+        <v>436.4264526367188</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -802,7 +802,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390625</v>
+        <v>441.0390319824219</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -840,7 +840,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492309570312</v>
+        <v>437.6492004394531</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -916,7 +916,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566284179688</v>
+        <v>431.3566589355469</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -992,7 +992,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556335449219</v>
+        <v>436.5556030273438</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -1068,7 +1068,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8221130371094</v>
+        <v>443.8220825195312</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1220,7 +1220,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.7868347167969</v>
+        <v>442.786865234375</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1410,7 +1410,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404235839844</v>
+        <v>433.3404541015625</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1486,7 +1486,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5763244628906</v>
+        <v>438.5762939453125</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -1524,7 +1524,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1988220214844</v>
+        <v>440.1987915039062</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -1562,7 +1562,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565063476562</v>
+        <v>436.3565368652344</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -1638,7 +1638,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2570190429688</v>
+        <v>436.2569885253906</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -1790,7 +1790,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652404785156</v>
+        <v>421.4652709960938</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -1828,7 +1828,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454833984375</v>
+        <v>412.7454528808594</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -1904,7 +1904,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176452636719</v>
+        <v>423.1176147460938</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -1980,7 +1980,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.50048828125</v>
+        <v>422.5005187988281</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -2018,7 +2018,7 @@
         <v>79.55999755859375</v>
       </c>
       <c r="H41">
-        <v>429.0203552246094</v>
+        <v>429.0203857421875</v>
       </c>
       <c r="I41">
         <v>-0.6217134896209225</v>
@@ -2094,7 +2094,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398315429688</v>
+        <v>422.6398010253906</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2246,7 +2246,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2279052734375</v>
+        <v>438.2278747558594</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2322,7 +2322,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387878417969</v>
+        <v>438.0387573242188</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2360,7 +2360,7 @@
         <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.9943237304688</v>
+        <v>438.9943542480469</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
@@ -2398,7 +2398,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0296020507812</v>
+        <v>440.0295715332031</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -2474,7 +2474,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8817749023438</v>
+        <v>443.8818054199219</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2550,7 +2550,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.9040222167969</v>
+        <v>449.904052734375</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -2626,7 +2626,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.8205871582031</v>
+        <v>452.820556640625</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -2702,7 +2702,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168823242188</v>
+        <v>453.6168518066406</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -2778,7 +2778,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8465881347656</v>
+        <v>455.8466186523438</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2854,7 +2854,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435668945312</v>
+        <v>454.3435363769531</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2930,7 +2930,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398620605469</v>
+        <v>448.6398315429688</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -2968,7 +2968,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487670898438</v>
+        <v>451.0487365722656</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -3082,7 +3082,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="H69">
-        <v>461.2416687011719</v>
+        <v>461.24169921875</v>
       </c>
       <c r="I69">
         <v>0.03933998528229735</v>
@@ -3158,7 +3158,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6949768066406</v>
+        <v>462.6950073242188</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -3234,7 +3234,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.9721984863281</v>
+        <v>471.97216796875</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -3272,7 +3272,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303955078125</v>
+        <v>474.5303649902344</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -3462,7 +3462,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9745178222656</v>
+        <v>477.9744873046875</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -3576,7 +3576,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236450195312</v>
+        <v>478.9236145019531</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -3728,7 +3728,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137634277344</v>
+        <v>485.5137329101562</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -3804,7 +3804,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6661071777344</v>
+        <v>494.6660766601562</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -4108,7 +4108,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3194274902344</v>
+        <v>480.3193969726562</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -4146,7 +4146,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462646484375</v>
+        <v>478.0462951660156</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -4412,7 +4412,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032043457031</v>
+        <v>462.5032348632812</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -4450,7 +4450,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524353027344</v>
+        <v>456.1524047851562</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -4564,7 +4564,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988647460938</v>
+        <v>447.3988342285156</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -4792,7 +4792,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209350585938</v>
+        <v>450.0209045410156</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -4830,7 +4830,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871948242188</v>
+        <v>461.1871643066406</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -4906,7 +4906,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915466308594</v>
+        <v>472.9915771484375</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -5210,7 +5210,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3245239257812</v>
+        <v>475.3244934082031</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -5514,7 +5514,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916137695312</v>
+        <v>453.0916442871094</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -5590,7 +5590,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.208984375</v>
+        <v>467.2090148925781</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>
@@ -10020,7 +10020,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264831542969</v>
+        <v>436.4264526367188</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -10138,7 +10138,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390625</v>
+        <v>441.0390319824219</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -10197,7 +10197,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492309570312</v>
+        <v>437.6492004394531</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -10315,7 +10315,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566284179688</v>
+        <v>431.3566589355469</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -10433,7 +10433,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556335449219</v>
+        <v>436.5556030273438</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -10551,7 +10551,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8221130371094</v>
+        <v>443.8220825195312</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -10787,7 +10787,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.7868347167969</v>
+        <v>442.786865234375</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -11082,7 +11082,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404235839844</v>
+        <v>433.3404541015625</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -11200,7 +11200,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5763244628906</v>
+        <v>438.5762939453125</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -11259,7 +11259,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1988220214844</v>
+        <v>440.1987915039062</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -11318,7 +11318,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565063476562</v>
+        <v>436.3565368652344</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -11436,7 +11436,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2570190429688</v>
+        <v>436.2569885253906</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -11672,7 +11672,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652404785156</v>
+        <v>421.4652709960938</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -11731,7 +11731,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454833984375</v>
+        <v>412.7454528808594</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -11849,7 +11849,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176452636719</v>
+        <v>423.1176147460938</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -11967,7 +11967,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.50048828125</v>
+        <v>422.5005187988281</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -12026,7 +12026,7 @@
         <v>79.55999755859375</v>
       </c>
       <c r="H41">
-        <v>429.0203552246094</v>
+        <v>429.0203857421875</v>
       </c>
       <c r="I41">
         <v>-0.6217134896209225</v>
@@ -12144,7 +12144,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398315429688</v>
+        <v>422.6398010253906</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -12380,7 +12380,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2279052734375</v>
+        <v>438.2278747558594</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -12498,7 +12498,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387878417969</v>
+        <v>438.0387573242188</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -12557,7 +12557,7 @@
         <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.9943237304688</v>
+        <v>438.9943542480469</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
@@ -12616,7 +12616,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0296020507812</v>
+        <v>440.0295715332031</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -12734,7 +12734,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8817749023438</v>
+        <v>443.8818054199219</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -12852,7 +12852,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.9040222167969</v>
+        <v>449.904052734375</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -12970,7 +12970,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.8205871582031</v>
+        <v>452.820556640625</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -13088,7 +13088,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168823242188</v>
+        <v>453.6168518066406</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -13206,7 +13206,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8465881347656</v>
+        <v>455.8466186523438</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -13324,7 +13324,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435668945312</v>
+        <v>454.3435363769531</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -13442,7 +13442,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398620605469</v>
+        <v>448.6398315429688</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -13501,7 +13501,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487670898438</v>
+        <v>451.0487365722656</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -13678,7 +13678,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="H69">
-        <v>461.2416687011719</v>
+        <v>461.24169921875</v>
       </c>
       <c r="I69">
         <v>0.03933998528229735</v>
@@ -13796,7 +13796,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6949768066406</v>
+        <v>462.6950073242188</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -13914,7 +13914,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.9721984863281</v>
+        <v>471.97216796875</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -13973,7 +13973,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303955078125</v>
+        <v>474.5303649902344</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -14268,7 +14268,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9745178222656</v>
+        <v>477.9744873046875</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -14445,7 +14445,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236450195312</v>
+        <v>478.9236145019531</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -14681,7 +14681,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137634277344</v>
+        <v>485.5137329101562</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -14799,7 +14799,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6661071777344</v>
+        <v>494.6660766601562</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -15271,7 +15271,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3194274902344</v>
+        <v>480.3193969726562</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -15330,7 +15330,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462646484375</v>
+        <v>478.0462951660156</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -15743,7 +15743,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032043457031</v>
+        <v>462.5032348632812</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -15802,7 +15802,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524353027344</v>
+        <v>456.1524047851562</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -15979,7 +15979,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988647460938</v>
+        <v>447.3988342285156</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -16333,7 +16333,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209350585938</v>
+        <v>450.0209045410156</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -16392,7 +16392,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871948242188</v>
+        <v>461.1871643066406</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -16510,7 +16510,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915466308594</v>
+        <v>472.9915771484375</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -16982,7 +16982,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3245239257812</v>
+        <v>475.3244934082031</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -17454,7 +17454,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916137695312</v>
+        <v>453.0916442871094</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -17572,7 +17572,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.208984375</v>
+        <v>467.2090148925781</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>
@@ -24249,7 +24249,7 @@
         <v>86.55999755859375</v>
       </c>
       <c r="H7">
-        <v>436.4264831542969</v>
+        <v>436.4264526367188</v>
       </c>
       <c r="I7">
         <v>-0.6986324576569484</v>
@@ -24367,7 +24367,7 @@
         <v>83.76000213623047</v>
       </c>
       <c r="H9">
-        <v>441.0390625</v>
+        <v>441.0390319824219</v>
       </c>
       <c r="I9">
         <v>-0.702854877610304</v>
@@ -24426,7 +24426,7 @@
         <v>86.26999664306641</v>
       </c>
       <c r="H10">
-        <v>437.6492309570312</v>
+        <v>437.6492004394531</v>
       </c>
       <c r="I10">
         <v>-0.7556766222377322</v>
@@ -24544,7 +24544,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566284179688</v>
+        <v>431.3566589355469</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -24662,7 +24662,7 @@
         <v>83.90000152587891</v>
       </c>
       <c r="H14">
-        <v>436.5556335449219</v>
+        <v>436.5556030273438</v>
       </c>
       <c r="I14">
         <v>-0.7198887823696446</v>
@@ -24780,7 +24780,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8221130371094</v>
+        <v>443.8220825195312</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -25016,7 +25016,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.7868347167969</v>
+        <v>442.786865234375</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -25311,7 +25311,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404235839844</v>
+        <v>433.3404541015625</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -25429,7 +25429,7 @@
         <v>86.26000213623047</v>
       </c>
       <c r="H27">
-        <v>438.5763244628906</v>
+        <v>438.5762939453125</v>
       </c>
       <c r="I27">
         <v>-0.6082727309655063</v>
@@ -25488,7 +25488,7 @@
         <v>84.44999694824219</v>
       </c>
       <c r="H28">
-        <v>440.1988220214844</v>
+        <v>440.1987915039062</v>
       </c>
       <c r="I28">
         <v>-0.6089589198836405</v>
@@ -25547,7 +25547,7 @@
         <v>91.76000213623047</v>
       </c>
       <c r="H29">
-        <v>436.3565063476562</v>
+        <v>436.3565368652344</v>
       </c>
       <c r="I29">
         <v>-0.6120942092742537</v>
@@ -25665,7 +25665,7 @@
         <v>102.7200012207031</v>
       </c>
       <c r="H31">
-        <v>436.2570190429688</v>
+        <v>436.2569885253906</v>
       </c>
       <c r="I31">
         <v>-0.6577731400490808</v>
@@ -25901,7 +25901,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="H35">
-        <v>421.4652404785156</v>
+        <v>421.4652709960938</v>
       </c>
       <c r="I35">
         <v>-0.5670471339171735</v>
@@ -25960,7 +25960,7 @@
         <v>99.08999633789062</v>
       </c>
       <c r="H36">
-        <v>412.7454833984375</v>
+        <v>412.7454528808594</v>
       </c>
       <c r="I36">
         <v>-0.5316718272636712</v>
@@ -26078,7 +26078,7 @@
         <v>82.36000061035156</v>
       </c>
       <c r="H38">
-        <v>423.1176452636719</v>
+        <v>423.1176147460938</v>
       </c>
       <c r="I38">
         <v>-0.6236841459023624</v>
@@ -26196,7 +26196,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.50048828125</v>
+        <v>422.5005187988281</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -26255,7 +26255,7 @@
         <v>79.55999755859375</v>
       </c>
       <c r="H41">
-        <v>429.0203552246094</v>
+        <v>429.0203857421875</v>
       </c>
       <c r="I41">
         <v>-0.6217134896209225</v>
@@ -26373,7 +26373,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398315429688</v>
+        <v>422.6398010253906</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -26609,7 +26609,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2279052734375</v>
+        <v>438.2278747558594</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -26727,7 +26727,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387878417969</v>
+        <v>438.0387573242188</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -26786,7 +26786,7 @@
         <v>73.76999664306641</v>
       </c>
       <c r="H50">
-        <v>438.9943237304688</v>
+        <v>438.9943542480469</v>
       </c>
       <c r="I50">
         <v>-0.6552337503280925</v>
@@ -26845,7 +26845,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="H51">
-        <v>440.0296020507812</v>
+        <v>440.0295715332031</v>
       </c>
       <c r="I51">
         <v>-0.6365390996019099</v>
@@ -26963,7 +26963,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8817749023438</v>
+        <v>443.8818054199219</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -27081,7 +27081,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="H55">
-        <v>449.9040222167969</v>
+        <v>449.904052734375</v>
       </c>
       <c r="I55">
         <v>-0.3362649664923328</v>
@@ -27199,7 +27199,7 @@
         <v>79.44999694824219</v>
       </c>
       <c r="H57">
-        <v>452.8205871582031</v>
+        <v>452.820556640625</v>
       </c>
       <c r="I57">
         <v>-0.2253865927189511</v>
@@ -27317,7 +27317,7 @@
         <v>79.95999908447266</v>
       </c>
       <c r="H59">
-        <v>453.6168823242188</v>
+        <v>453.6168518066406</v>
       </c>
       <c r="I59">
         <v>-0.09156409809493536</v>
@@ -27435,7 +27435,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8465881347656</v>
+        <v>455.8466186523438</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -27553,7 +27553,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435668945312</v>
+        <v>454.3435363769531</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -27671,7 +27671,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398620605469</v>
+        <v>448.6398315429688</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -27730,7 +27730,7 @@
         <v>78.79000091552734</v>
       </c>
       <c r="H66">
-        <v>451.0487670898438</v>
+        <v>451.0487365722656</v>
       </c>
       <c r="I66">
         <v>-0.006841972408847963</v>
@@ -27907,7 +27907,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="H69">
-        <v>461.2416687011719</v>
+        <v>461.24169921875</v>
       </c>
       <c r="I69">
         <v>0.03933998528229735</v>
@@ -28025,7 +28025,7 @@
         <v>78.97000122070312</v>
       </c>
       <c r="H71">
-        <v>462.6949768066406</v>
+        <v>462.6950073242188</v>
       </c>
       <c r="I71">
         <v>0.07130022759035602</v>
@@ -28143,7 +28143,7 @@
         <v>77.59999847412109</v>
       </c>
       <c r="H73">
-        <v>471.9721984863281</v>
+        <v>471.97216796875</v>
       </c>
       <c r="I73">
         <v>-0.06129664128339365</v>
@@ -28202,7 +28202,7 @@
         <v>78.19999694824219</v>
       </c>
       <c r="H74">
-        <v>474.5303955078125</v>
+        <v>474.5303649902344</v>
       </c>
       <c r="I74">
         <v>-0.04914671473077111</v>
@@ -28497,7 +28497,7 @@
         <v>83.30999755859375</v>
       </c>
       <c r="H79">
-        <v>477.9745178222656</v>
+        <v>477.9744873046875</v>
       </c>
       <c r="I79">
         <v>-0.3383420496700856</v>
@@ -28674,7 +28674,7 @@
         <v>81.44999694824219</v>
       </c>
       <c r="H82">
-        <v>478.9236450195312</v>
+        <v>478.9236145019531</v>
       </c>
       <c r="I82">
         <v>-0.254707346318355</v>
@@ -28910,7 +28910,7 @@
         <v>77.05999755859375</v>
       </c>
       <c r="H86">
-        <v>485.5137634277344</v>
+        <v>485.5137329101562</v>
       </c>
       <c r="I86">
         <v>-0.4612163350372639</v>
@@ -29028,7 +29028,7 @@
         <v>78.80000305175781</v>
       </c>
       <c r="H88">
-        <v>494.6661071777344</v>
+        <v>494.6660766601562</v>
       </c>
       <c r="I88">
         <v>-0.4257736585488906</v>
@@ -29500,7 +29500,7 @@
         <v>88.27999877929688</v>
       </c>
       <c r="H96">
-        <v>480.3194274902344</v>
+        <v>480.3193969726562</v>
       </c>
       <c r="I96">
         <v>-0.4819657255633778</v>
@@ -29559,7 +29559,7 @@
         <v>94.70999908447266</v>
       </c>
       <c r="H97">
-        <v>478.0462646484375</v>
+        <v>478.0462951660156</v>
       </c>
       <c r="I97">
         <v>-0.5163859739195508</v>
@@ -29972,7 +29972,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="H104">
-        <v>462.5032043457031</v>
+        <v>462.5032348632812</v>
       </c>
       <c r="I104">
         <v>-0.7420814261233175</v>
@@ -30031,7 +30031,7 @@
         <v>99.97000122070312</v>
       </c>
       <c r="H105">
-        <v>456.1524353027344</v>
+        <v>456.1524047851562</v>
       </c>
       <c r="I105">
         <v>-0.7441786463717587</v>
@@ -30208,7 +30208,7 @@
         <v>136.8099975585938</v>
       </c>
       <c r="H108">
-        <v>447.3988647460938</v>
+        <v>447.3988342285156</v>
       </c>
       <c r="I108">
         <v>-0.7803373168359919</v>
@@ -30562,7 +30562,7 @@
         <v>121.9400024414062</v>
       </c>
       <c r="H114">
-        <v>450.0209350585938</v>
+        <v>450.0209045410156</v>
       </c>
       <c r="I114">
         <v>-0.7735766877066633</v>
@@ -30621,7 +30621,7 @@
         <v>113.8899993896484</v>
       </c>
       <c r="H115">
-        <v>461.1871948242188</v>
+        <v>461.1871643066406</v>
       </c>
       <c r="I115">
         <v>-0.7978484366923498</v>
@@ -30739,7 +30739,7 @@
         <v>105.4199981689453</v>
       </c>
       <c r="H117">
-        <v>472.9915466308594</v>
+        <v>472.9915771484375</v>
       </c>
       <c r="I117">
         <v>-0.7958942103037395</v>
@@ -31211,7 +31211,7 @@
         <v>93.44999694824219</v>
       </c>
       <c r="H125">
-        <v>475.3245239257812</v>
+        <v>475.3244934082031</v>
       </c>
       <c r="I125">
         <v>-0.7565521242529611</v>
@@ -31683,7 +31683,7 @@
         <v>110.8499984741211</v>
       </c>
       <c r="H133">
-        <v>453.0916137695312</v>
+        <v>453.0916442871094</v>
       </c>
       <c r="I133">
         <v>-0.6879133355689095</v>
@@ -31801,7 +31801,7 @@
         <v>102.9000015258789</v>
       </c>
       <c r="H135">
-        <v>467.208984375</v>
+        <v>467.2090148925781</v>
       </c>
       <c r="I135">
         <v>-0.6892968318800979</v>

--- a/Data/Strategy 2 Performance.xlsx
+++ b/Data/Strategy 2 Performance.xlsx
@@ -536,7 +536,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775390625</v>
+        <v>442.9775085449219</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -574,7 +574,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969421386719</v>
+        <v>441.3969116210938</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -688,7 +688,7 @@
         <v>82.12999725341797</v>
       </c>
       <c r="H6">
-        <v>442.8185119628906</v>
+        <v>442.8184814453125</v>
       </c>
       <c r="I6">
         <v>-0.7007232942017978</v>
@@ -878,7 +878,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457763671875</v>
+        <v>436.5457458496094</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -916,7 +916,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566589355469</v>
+        <v>431.3565979003906</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -954,7 +954,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706420898438</v>
+        <v>435.4706726074219</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -1068,7 +1068,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -1220,7 +1220,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -1410,7 +1410,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -1752,7 +1752,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840637207031</v>
+        <v>423.8840942382812</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -1980,7 +1980,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -2094,7 +2094,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -2132,7 +2132,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5839233398438</v>
+        <v>419.5838928222656</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -2246,7 +2246,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -2322,7 +2322,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -2474,7 +2474,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818054199219</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -2778,7 +2778,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466186523438</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -2854,7 +2854,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -2930,7 +2930,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -9728,7 +9728,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775390625</v>
+        <v>442.9775085449219</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -9784,7 +9784,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969421386719</v>
+        <v>441.3969116210938</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -9961,7 +9961,7 @@
         <v>82.12999725341797</v>
       </c>
       <c r="H6">
-        <v>442.8185119628906</v>
+        <v>442.8184814453125</v>
       </c>
       <c r="I6">
         <v>-0.7007232942017978</v>
@@ -10256,7 +10256,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457763671875</v>
+        <v>436.5457458496094</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -10315,7 +10315,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566589355469</v>
+        <v>431.3565979003906</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -10374,7 +10374,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706420898438</v>
+        <v>435.4706726074219</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -10551,7 +10551,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -10787,7 +10787,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -11082,7 +11082,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -11613,7 +11613,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840637207031</v>
+        <v>423.8840942382812</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -11967,7 +11967,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -12144,7 +12144,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -12203,7 +12203,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5839233398438</v>
+        <v>419.5838928222656</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -12380,7 +12380,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -12498,7 +12498,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -12734,7 +12734,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818054199219</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -13206,7 +13206,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466186523438</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -13324,7 +13324,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -13442,7 +13442,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
@@ -23957,7 +23957,7 @@
         <v>77.68000030517578</v>
       </c>
       <c r="H2">
-        <v>442.9775390625</v>
+        <v>442.9775085449219</v>
       </c>
       <c r="I2">
         <v>-0.6264986234834989</v>
@@ -24013,7 +24013,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="H3">
-        <v>441.3969421386719</v>
+        <v>441.3969116210938</v>
       </c>
       <c r="I3">
         <v>-0.6265326492805465</v>
@@ -24190,7 +24190,7 @@
         <v>82.12999725341797</v>
       </c>
       <c r="H6">
-        <v>442.8185119628906</v>
+        <v>442.8184814453125</v>
       </c>
       <c r="I6">
         <v>-0.7007232942017978</v>
@@ -24485,7 +24485,7 @@
         <v>88.75</v>
       </c>
       <c r="H11">
-        <v>436.5457763671875</v>
+        <v>436.5457458496094</v>
       </c>
       <c r="I11">
         <v>-0.7202651147494306</v>
@@ -24544,7 +24544,7 @@
         <v>92.16999816894531</v>
       </c>
       <c r="H12">
-        <v>431.3566589355469</v>
+        <v>431.3565979003906</v>
       </c>
       <c r="I12">
         <v>-0.6894835123582238</v>
@@ -24603,7 +24603,7 @@
         <v>86.77999877929688</v>
       </c>
       <c r="H13">
-        <v>435.4706420898438</v>
+        <v>435.4706726074219</v>
       </c>
       <c r="I13">
         <v>-0.7473204860563288</v>
@@ -24780,7 +24780,7 @@
         <v>77.30000305175781</v>
       </c>
       <c r="H16">
-        <v>443.8220825195312</v>
+        <v>443.8221130371094</v>
       </c>
       <c r="I16">
         <v>-0.6883621376658307</v>
@@ -25016,7 +25016,7 @@
         <v>76</v>
       </c>
       <c r="H20">
-        <v>442.786865234375</v>
+        <v>442.7868347167969</v>
       </c>
       <c r="I20">
         <v>-0.6245119881747774</v>
@@ -25311,7 +25311,7 @@
         <v>90.04000091552734</v>
       </c>
       <c r="H25">
-        <v>433.3404541015625</v>
+        <v>433.3404235839844</v>
       </c>
       <c r="I25">
         <v>-0.5754458021726722</v>
@@ -25842,7 +25842,7 @@
         <v>98.76000213623047</v>
       </c>
       <c r="H34">
-        <v>423.8840637207031</v>
+        <v>423.8840942382812</v>
       </c>
       <c r="I34">
         <v>-0.5632461911431503</v>
@@ -26196,7 +26196,7 @@
         <v>82.54000091552734</v>
       </c>
       <c r="H40">
-        <v>422.5005187988281</v>
+        <v>422.50048828125</v>
       </c>
       <c r="I40">
         <v>-0.6214430088174946</v>
@@ -26373,7 +26373,7 @@
         <v>81.81999969482422</v>
       </c>
       <c r="H43">
-        <v>422.6398010253906</v>
+        <v>422.6398315429688</v>
       </c>
       <c r="I43">
         <v>-0.6514024461412746</v>
@@ -26432,7 +26432,7 @@
         <v>81.93000030517578</v>
       </c>
       <c r="H44">
-        <v>419.5839233398438</v>
+        <v>419.5838928222656</v>
       </c>
       <c r="I44">
         <v>-0.6453921848933102</v>
@@ -26609,7 +26609,7 @@
         <v>73.45999908447266</v>
       </c>
       <c r="H47">
-        <v>438.2278747558594</v>
+        <v>438.2279052734375</v>
       </c>
       <c r="I47">
         <v>-0.6598240662885334</v>
@@ -26727,7 +26727,7 @@
         <v>74.5</v>
       </c>
       <c r="H49">
-        <v>438.0387573242188</v>
+        <v>438.0387878417969</v>
       </c>
       <c r="I49">
         <v>-0.6439386413985447</v>
@@ -26963,7 +26963,7 @@
         <v>77.65000152587891</v>
       </c>
       <c r="H53">
-        <v>443.8818054199219</v>
+        <v>443.8817749023438</v>
       </c>
       <c r="I53">
         <v>-0.4454688649414407</v>
@@ -27435,7 +27435,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="H61">
-        <v>455.8466186523438</v>
+        <v>455.8465881347656</v>
       </c>
       <c r="I61">
         <v>-0.2526890708384925</v>
@@ -27553,7 +27553,7 @@
         <v>83.79000091552734</v>
       </c>
       <c r="H63">
-        <v>454.3435363769531</v>
+        <v>454.3435668945312</v>
       </c>
       <c r="I63">
         <v>-0.2228112513688471</v>
@@ -27671,7 +27671,7 @@
         <v>78.26999664306641</v>
       </c>
       <c r="H65">
-        <v>448.6398315429688</v>
+        <v>448.6398620605469</v>
       </c>
       <c r="I65">
         <v>-0.08285066154926278</v>
